--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -757,7 +757,10 @@
       <c r="H3" s="8" t="n"/>
       <c r="I3" s="8" t="n"/>
       <c r="J3" s="8" t="inlineStr"/>
-      <c r="K3" s="8" t="inlineStr"/>
+      <c r="K3" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -784,10 +787,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>1-商品情報を押下する-OK.png</t>
-        </is>
+      <c r="K4" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\1-商品情報を押下する-OK.png", "1-商品情報を押下する-OK.png")</f>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -808,14 +810,17 @@
       <c r="E5" s="8" t="n"/>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>r-company</t>
+          <t>r-rcp</t>
         </is>
       </c>
       <c r="G5" s="8" t="n"/>
       <c r="H5" s="8" t="n"/>
       <c r="I5" s="8" t="n"/>
       <c r="J5" s="8" t="inlineStr"/>
-      <c r="K5" s="8" t="inlineStr"/>
+      <c r="K5" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -834,18 +839,17 @@
       <c r="H6" s="8" t="n"/>
       <c r="I6" s="8" t="inlineStr">
         <is>
-          <t>https://www.aohata.co.jp/company/</t>
+          <t>https://www.aohata.co.jp/recipes/</t>
         </is>
       </c>
       <c r="J6" s="8" t="inlineStr">
         <is>
-          <t>NG</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>2-おすすめレシピを押下する-NG.png</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K6" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\2-おすすめレシピを押下する-OK.png", "2-おすすめレシピを押下する-OK.png")</f>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -866,14 +870,17 @@
       <c r="E7" s="8" t="n"/>
       <c r="F7" s="8" t="inlineStr">
         <is>
-          <t>r-pdc</t>
+          <t>r-experience</t>
         </is>
       </c>
       <c r="G7" s="8" t="n"/>
       <c r="H7" s="8" t="n"/>
       <c r="I7" s="8" t="n"/>
       <c r="J7" s="8" t="inlineStr"/>
-      <c r="K7" s="8" t="inlineStr"/>
+      <c r="K7" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -892,18 +899,17 @@
       <c r="H8" s="8" t="n"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>https://www.aohata.co.jp/products/</t>
+          <t>https://www.aohata.co.jp/experience/</t>
         </is>
       </c>
       <c r="J8" s="8" t="inlineStr">
         <is>
-          <t>NG</t>
-        </is>
-      </c>
-      <c r="K8" s="8" t="inlineStr">
-        <is>
-          <t>3-知る・見る・体験するを押下する-NG.png</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K8" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\3-知る・見る・体験するを押下する-OK.png", "3-知る・見る・体験するを押下する-OK.png")</f>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -931,7 +937,10 @@
       <c r="H9" s="8" t="n"/>
       <c r="I9" s="8" t="n"/>
       <c r="J9" s="8" t="inlineStr"/>
-      <c r="K9" s="8" t="inlineStr"/>
+      <c r="K9" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -958,10 +967,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K10" s="8" t="inlineStr">
-        <is>
-          <t>4-企業情報を押下する-OK.png</t>
-        </is>
+      <c r="K10" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\4-企業情報を押下する-OK.png", "4-企業情報を押下する-OK.png")</f>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -989,7 +997,10 @@
       <c r="H11" s="8" t="n"/>
       <c r="I11" s="8" t="n"/>
       <c r="J11" s="8" t="inlineStr"/>
-      <c r="K11" s="8" t="inlineStr"/>
+      <c r="K11" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -1016,10 +1027,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K12" s="8" t="inlineStr">
-        <is>
-          <t>5-お問い合わせ・FAQを押下する-OK.png</t>
-        </is>
+      <c r="K12" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\5-お問い合わせ・FAQを押下する-OK.png", "5-お問い合わせ・FAQを押下する-OK.png")</f>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -1047,7 +1057,10 @@
       <c r="H13" s="8" t="n"/>
       <c r="I13" s="8" t="n"/>
       <c r="J13" s="8" t="inlineStr"/>
-      <c r="K13" s="8" t="inlineStr"/>
+      <c r="K13" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -1074,10 +1087,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>6-採用情報を押下する-OK.png</t>
-        </is>
+      <c r="K14" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\6-採用情報を押下する-OK.png", "6-採用情報を押下する-OK.png")</f>
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -1105,7 +1117,10 @@
       <c r="H15" s="8" t="n"/>
       <c r="I15" s="8" t="n"/>
       <c r="J15" s="8" t="inlineStr"/>
-      <c r="K15" s="8" t="inlineStr"/>
+      <c r="K15" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -1132,10 +1147,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K16" s="8" t="inlineStr">
-        <is>
-          <t>7-Englishを押下する-OK.png</t>
-        </is>
+      <c r="K16" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\7-Englishを押下する-OK.png", "7-Englishを押下する-OK.png")</f>
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1163,7 +1177,10 @@
       <c r="H17" s="8" t="n"/>
       <c r="I17" s="8" t="n"/>
       <c r="J17" s="8" t="inlineStr"/>
-      <c r="K17" s="8" t="inlineStr"/>
+      <c r="K17" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -1190,10 +1207,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K18" s="8" t="inlineStr">
-        <is>
-          <t>8-中文を押下する-OK.png</t>
-        </is>
+      <c r="K18" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\8-中文を押下する-OK.png", "8-中文を押下する-OK.png")</f>
+        <v/>
       </c>
     </row>
     <row r="19">
@@ -1221,7 +1237,10 @@
       <c r="H19" s="8" t="n"/>
       <c r="I19" s="8" t="n"/>
       <c r="J19" s="8" t="inlineStr"/>
-      <c r="K19" s="8" t="inlineStr"/>
+      <c r="K19" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -1248,7 +1267,10 @@
       <c r="H20" s="8" t="n"/>
       <c r="I20" s="8" t="n"/>
       <c r="J20" s="8" t="inlineStr"/>
-      <c r="K20" s="8" t="inlineStr"/>
+      <c r="K20" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
@@ -1275,10 +1297,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K21" s="8" t="inlineStr">
-        <is>
-          <t>9-パンくずのアヲハタトップを押下する-OK.png</t>
-        </is>
+      <c r="K21" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\9-パンくずのアヲハタトップを押下する-OK.png", "9-パンくずのアヲハタトップを押下する-OK.png")</f>
+        <v/>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1327,10 @@
       </c>
       <c r="I22" s="9" t="n"/>
       <c r="J22" s="8" t="inlineStr"/>
-      <c r="K22" s="8" t="inlineStr"/>
+      <c r="K22" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -1334,10 +1358,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>10-商品情報バナーの「＞」矢印を押下する-OK.png</t>
-        </is>
+      <c r="K23" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\10-商品情報バナーの「＞」矢印を押下する-OK.png", "10-商品情報バナーの「＞」矢印を押下する-OK.png")</f>
+        <v/>
       </c>
     </row>
     <row r="24">
@@ -1365,7 +1388,10 @@
       </c>
       <c r="I24" s="9" t="n"/>
       <c r="J24" s="8" t="inlineStr"/>
-      <c r="K24" s="8" t="inlineStr"/>
+      <c r="K24" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -1394,10 +1420,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K25" s="8" t="inlineStr">
-        <is>
-          <t>11-商品情報バナーの「＜」矢印を押下する-OK.png</t>
-        </is>
+      <c r="K25" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\11-商品情報バナーの「＜」矢印を押下する-OK.png", "11-商品情報バナーの「＜」矢印を押下する-OK.png")</f>
+        <v/>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1" s="21">
@@ -1425,7 +1450,10 @@
       </c>
       <c r="I26" s="8" t="n"/>
       <c r="J26" s="8" t="inlineStr"/>
-      <c r="K26" s="8" t="inlineStr"/>
+      <c r="K26" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -1452,10 +1480,9 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K27" s="8" t="inlineStr">
-        <is>
-          <t>12-シリーズラインアップの「アヲハタ５５ジャム」を押下する-OK.png</t>
-        </is>
+      <c r="K27" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\12-シリーズラインアップの「アヲハタ５５ジャム」を押下する-OK.png", "12-シリーズラインアップの「アヲハタ５５ジャム」を押下する-OK.png")</f>
+        <v/>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1" s="21">
@@ -1483,7 +1510,10 @@
       </c>
       <c r="I28" s="18" t="n"/>
       <c r="J28" s="18" t="inlineStr"/>
-      <c r="K28" s="8" t="inlineStr"/>
+      <c r="K28" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n"/>
@@ -1508,15 +1538,17 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="K29" s="8" t="inlineStr">
-        <is>
-          <t>13-シリーズラインアップの「アヲハタ５５ポーションジャム」を押下する-OK.png</t>
-        </is>
+      <c r="K29" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\13-シリーズラインアップの「アヲハタ５５ポーションジャム」を押下する-OK.png", "13-シリーズラインアップの「アヲハタ５５ポーションジャム」を押下する-OK.png")</f>
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -626,10 +626,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -638,10 +638,10 @@
     <col width="35.85546875" customWidth="1" style="1" min="2" max="2"/>
     <col width="15.42578125" customWidth="1" style="1" min="3" max="3"/>
     <col width="34.42578125" customWidth="1" style="1" min="4" max="4"/>
-    <col hidden="1" width="14" customWidth="1" style="1" min="5" max="5"/>
-    <col hidden="1" width="23.7109375" customWidth="1" style="1" min="6" max="6"/>
-    <col hidden="1" width="8.85546875" customWidth="1" style="1" min="7" max="7"/>
-    <col hidden="1" width="56.28515625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="14" customWidth="1" style="1" min="5" max="5"/>
+    <col width="23.7109375" customWidth="1" style="1" min="6" max="6"/>
+    <col width="8.85546875" customWidth="1" style="1" min="7" max="7"/>
+    <col width="56.28515625" customWidth="1" style="1" min="8" max="8"/>
     <col width="44.28515625" customWidth="1" style="1" min="9" max="9"/>
     <col width="12" customWidth="1" style="1" min="10" max="10"/>
     <col width="59.7109375" customWidth="1" style="1" min="11" max="11"/>
@@ -1516,7 +1516,9 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n"/>
+      <c r="A29" s="3" t="n">
+        <v>28</v>
+      </c>
       <c r="B29" s="20" t="n"/>
       <c r="C29" s="10" t="inlineStr">
         <is>
@@ -1544,8 +1546,569 @@
       </c>
     </row>
     <row r="30">
-      <c r="J30" t="inlineStr"/>
-      <c r="K30">
+      <c r="A30" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>画面の起動</t>
+        </is>
+      </c>
+      <c r="C30" s="10" t="inlineStr">
+        <is>
+          <t>画面起動</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="inlineStr">
+        <is>
+          <t>https://kakaku.com/</t>
+        </is>
+      </c>
+      <c r="E30" s="8" t="n"/>
+      <c r="F30" s="8" t="n"/>
+      <c r="G30" s="8" t="n"/>
+      <c r="H30" s="15" t="n"/>
+      <c r="I30" s="8" t="n"/>
+      <c r="J30" s="8" t="inlineStr"/>
+      <c r="K30" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="21">
+      <c r="A31" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="inlineStr">
+        <is>
+          <t>Check Banner 1</t>
+        </is>
+      </c>
+      <c r="C31" s="10" t="inlineStr">
+        <is>
+          <t>Check banner</t>
+        </is>
+      </c>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
+      <c r="G31" s="8" t="n"/>
+      <c r="H31" s="15" t="inlineStr">
+        <is>
+          <t>/html/body/div[2]/div/a/span/div/img</t>
+        </is>
+      </c>
+      <c r="I31" s="7">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_admin.jpg", "banner_admin.jpg")</f>
+        <v/>
+      </c>
+      <c r="J31" s="8" t="inlineStr"/>
+      <c r="K31" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="n"/>
+      <c r="C32" s="10" t="inlineStr">
+        <is>
+          <t>Check the value</t>
+        </is>
+      </c>
+      <c r="D32" s="8" t="n"/>
+      <c r="E32" s="8" t="n"/>
+      <c r="F32" s="8" t="n"/>
+      <c r="G32" s="8" t="n"/>
+      <c r="H32" s="15" t="n"/>
+      <c r="I32" s="8" t="n"/>
+      <c r="J32" s="8" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="K32" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\14-Check Banner 1-False.png", "14-Check Banner 1-False.png")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="21">
+      <c r="A33" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="inlineStr">
+        <is>
+          <t>Check Banner 2</t>
+        </is>
+      </c>
+      <c r="C33" s="10" t="inlineStr">
+        <is>
+          <t>Check banner</t>
+        </is>
+      </c>
+      <c r="D33" s="8" t="n"/>
+      <c r="E33" s="8" t="n"/>
+      <c r="F33" s="8" t="n"/>
+      <c r="G33" s="8" t="n"/>
+      <c r="H33" s="15" t="inlineStr">
+        <is>
+          <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/div[2]/div/p/img</t>
+        </is>
+      </c>
+      <c r="I33" s="7">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_GTune_P5.jpg", "banner_GTune_P5.jpg")</f>
+        <v/>
+      </c>
+      <c r="J33" s="8" t="inlineStr"/>
+      <c r="K33" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="n"/>
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t>Check the value</t>
+        </is>
+      </c>
+      <c r="D34" s="8" t="n"/>
+      <c r="E34" s="8" t="n"/>
+      <c r="F34" s="8" t="n"/>
+      <c r="G34" s="8" t="n"/>
+      <c r="H34" s="15" t="n"/>
+      <c r="I34" s="8" t="n"/>
+      <c r="J34" s="8" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="K34" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\15-Check Banner 2-False.png", "15-Check Banner 2-False.png")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="21">
+      <c r="A35" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20" t="inlineStr">
+        <is>
+          <t>Check Banner 3</t>
+        </is>
+      </c>
+      <c r="C35" s="10" t="inlineStr">
+        <is>
+          <t>Check banner</t>
+        </is>
+      </c>
+      <c r="D35" s="8" t="n"/>
+      <c r="E35" s="8" t="n"/>
+      <c r="F35" s="8" t="n"/>
+      <c r="G35" s="8" t="n"/>
+      <c r="H35" s="15" t="inlineStr">
+        <is>
+          <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[1]/div/div/p/img</t>
+        </is>
+      </c>
+      <c r="I35" s="7">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_marumie.jpg", "banner_marumie.jpg")</f>
+        <v/>
+      </c>
+      <c r="J35" s="8" t="inlineStr"/>
+      <c r="K35" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="20" t="n"/>
+      <c r="C36" s="10" t="inlineStr">
+        <is>
+          <t>Check the value</t>
+        </is>
+      </c>
+      <c r="D36" s="8" t="n"/>
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
+      <c r="G36" s="8" t="n"/>
+      <c r="H36" s="15" t="n"/>
+      <c r="I36" s="8" t="n"/>
+      <c r="J36" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K36" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\16-Check Banner 3-True.png", "16-Check Banner 3-True.png")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" s="21">
+      <c r="A37" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="20" t="inlineStr">
+        <is>
+          <t>Check Banner 4</t>
+        </is>
+      </c>
+      <c r="C37" s="10" t="inlineStr">
+        <is>
+          <t>Check banner</t>
+        </is>
+      </c>
+      <c r="D37" s="8" t="n"/>
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
+      <c r="G37" s="8" t="n"/>
+      <c r="H37" s="15" t="inlineStr">
+        <is>
+          <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[2]/div/div/p/img</t>
+        </is>
+      </c>
+      <c r="I37" s="7">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_feature.jpg", "banner_feature.jpg")</f>
+        <v/>
+      </c>
+      <c r="J37" s="8" t="inlineStr"/>
+      <c r="K37" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="20" t="n"/>
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <t>Check the value</t>
+        </is>
+      </c>
+      <c r="D38" s="8" t="n"/>
+      <c r="E38" s="8" t="n"/>
+      <c r="F38" s="8" t="n"/>
+      <c r="G38" s="8" t="n"/>
+      <c r="H38" s="15" t="n"/>
+      <c r="I38" s="8" t="n"/>
+      <c r="J38" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K38" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\17-Check Banner 4-True.png", "17-Check Banner 4-True.png")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="21">
+      <c r="A39" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="20" t="inlineStr">
+        <is>
+          <t>Check Banner 5</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="inlineStr">
+        <is>
+          <t>Check banner</t>
+        </is>
+      </c>
+      <c r="D39" s="8" t="n"/>
+      <c r="E39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
+      <c r="G39" s="8" t="n"/>
+      <c r="H39" s="15" t="inlineStr">
+        <is>
+          <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[3]/div/div/p/img</t>
+        </is>
+      </c>
+      <c r="I39" s="7">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_camera.jpg", "banner_camera.jpg")</f>
+        <v/>
+      </c>
+      <c r="J39" s="8" t="inlineStr"/>
+      <c r="K39" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="20" t="n"/>
+      <c r="C40" s="10" t="inlineStr">
+        <is>
+          <t>Check the value</t>
+        </is>
+      </c>
+      <c r="D40" s="8" t="n"/>
+      <c r="E40" s="8" t="n"/>
+      <c r="F40" s="8" t="n"/>
+      <c r="G40" s="8" t="n"/>
+      <c r="H40" s="15" t="n"/>
+      <c r="I40" s="8" t="n"/>
+      <c r="J40" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K40" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\18-Check Banner 5-True.png", "18-Check Banner 5-True.png")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="21">
+      <c r="A41" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="20" t="inlineStr">
+        <is>
+          <t>Check Banner 6</t>
+        </is>
+      </c>
+      <c r="C41" s="10" t="inlineStr">
+        <is>
+          <t>Check banner</t>
+        </is>
+      </c>
+      <c r="D41" s="8" t="n"/>
+      <c r="E41" s="8" t="n"/>
+      <c r="F41" s="8" t="n"/>
+      <c r="G41" s="8" t="n"/>
+      <c r="H41" s="15" t="inlineStr">
+        <is>
+          <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[4]/div/div/p/img</t>
+        </is>
+      </c>
+      <c r="I41" s="7">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_houseware.png", "banner_houseware.png")</f>
+        <v/>
+      </c>
+      <c r="J41" s="8" t="inlineStr"/>
+      <c r="K41" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="20" t="n"/>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>Check the value</t>
+        </is>
+      </c>
+      <c r="D42" s="8" t="n"/>
+      <c r="E42" s="8" t="n"/>
+      <c r="F42" s="8" t="n"/>
+      <c r="G42" s="8" t="n"/>
+      <c r="H42" s="15" t="n"/>
+      <c r="I42" s="8" t="n"/>
+      <c r="J42" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K42" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\19-Check Banner 6-True.png", "19-Check Banner 6-True.png")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" s="21">
+      <c r="A43" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="20" t="inlineStr">
+        <is>
+          <t>Check Banner 7</t>
+        </is>
+      </c>
+      <c r="C43" s="10" t="inlineStr">
+        <is>
+          <t>Check banner</t>
+        </is>
+      </c>
+      <c r="D43" s="8" t="n"/>
+      <c r="E43" s="8" t="n"/>
+      <c r="F43" s="8" t="n"/>
+      <c r="G43" s="8" t="n"/>
+      <c r="H43" s="15" t="inlineStr">
+        <is>
+          <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[5]/div/div/p/img</t>
+        </is>
+      </c>
+      <c r="I43" s="7">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_bag.png", "banner_bag.png")</f>
+        <v/>
+      </c>
+      <c r="J43" s="8" t="inlineStr"/>
+      <c r="K43" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="20" t="n"/>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>Check the value</t>
+        </is>
+      </c>
+      <c r="D44" s="8" t="n"/>
+      <c r="E44" s="8" t="n"/>
+      <c r="F44" s="8" t="n"/>
+      <c r="G44" s="8" t="n"/>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="8" t="n"/>
+      <c r="J44" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K44" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\20-Check Banner 7-True.png", "20-Check Banner 7-True.png")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1" s="21">
+      <c r="A45" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="20" t="inlineStr">
+        <is>
+          <t>Check Banner 8</t>
+        </is>
+      </c>
+      <c r="C45" s="10" t="inlineStr">
+        <is>
+          <t>Check banner</t>
+        </is>
+      </c>
+      <c r="D45" s="8" t="n"/>
+      <c r="E45" s="8" t="n"/>
+      <c r="F45" s="8" t="n"/>
+      <c r="G45" s="8" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[6]/div/div/p/img</t>
+        </is>
+      </c>
+      <c r="I45" s="7">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_newlife.png", "banner_newlife.png")</f>
+        <v/>
+      </c>
+      <c r="J45" s="8" t="inlineStr"/>
+      <c r="K45" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="20" t="n"/>
+      <c r="C46" s="10" t="inlineStr">
+        <is>
+          <t>Check the value</t>
+        </is>
+      </c>
+      <c r="D46" s="8" t="n"/>
+      <c r="E46" s="8" t="n"/>
+      <c r="F46" s="8" t="n"/>
+      <c r="G46" s="8" t="n"/>
+      <c r="H46" s="15" t="n"/>
+      <c r="I46" s="8" t="n"/>
+      <c r="J46" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K46" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\21-Check Banner 8-True.png", "21-Check Banner 8-True.png")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" s="21">
+      <c r="A47" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="20" t="inlineStr">
+        <is>
+          <t>Check Banner 9</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr">
+        <is>
+          <t>Check banner</t>
+        </is>
+      </c>
+      <c r="D47" s="8" t="n"/>
+      <c r="E47" s="8" t="n"/>
+      <c r="F47" s="8" t="n"/>
+      <c r="G47" s="8" t="n"/>
+      <c r="H47" s="15" t="inlineStr">
+        <is>
+          <t>/html/body/div[1]/div[1]/div[2]/div[2]/div[4]/ul/li[7]/div/div/p/img</t>
+        </is>
+      </c>
+      <c r="I47" s="7">
+        <f>HYPERLINK("d:\TanLV\SS1\banner_image\banner_jalcard.jpg", "banner_jalcard.jpg")</f>
+        <v/>
+      </c>
+      <c r="J47" s="8" t="inlineStr"/>
+      <c r="K47" s="8">
+        <f>HYPERLINK("", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="20" t="n"/>
+      <c r="C48" s="10" t="inlineStr">
+        <is>
+          <t>Check the value</t>
+        </is>
+      </c>
+      <c r="D48" s="8" t="n"/>
+      <c r="E48" s="8" t="n"/>
+      <c r="F48" s="8" t="n"/>
+      <c r="G48" s="8" t="n"/>
+      <c r="H48" s="15" t="n"/>
+      <c r="I48" s="8" t="n"/>
+      <c r="J48" s="8" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="K48" s="8">
+        <f>HYPERLINK("d:\TanLV\SS1\image\22-Check Banner 9-False.png", "22-Check Banner 9-False.png")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49">
         <f>HYPERLINK("", "")</f>
         <v/>
       </c>
